--- a/DOM_Banner/output/dept0713/Xingnan Li_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Xingnan Li_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Genetics, Genomics, and Precision Medicine, and; University of Arizona, Tucson, United States; University of Arizona Arizona Health Sciences Center, Immunobiology and Medicine, Tucson, Arizona, United States; University of Arizona Health Sciences Center, Department of Medicine, Tucson, Arizona, United States; Division of Genetics, Genomics, and Precision Medicine, and; Wake Forest University, Center for Genomics and Personalized Medicine Research, School of Medicine, Winston-Salem, North Carolina, United States; Division of Pulmonary, Critical Care, and Sleep Medicine, University of Kansas School of Medicine, Kansas City, Kansas;; University of Wisconsin, Medicine-Allergy, Pulmonary and Critical Care Medicine, Madison, Wisconsin, United States; Lerner Research Institute and the Respiratory Institute, Cleveland Clinic, Cleveland, Ohio;; University of California San Francisco, San Francisco, California, United States; Wells Center for Pediatric Research and Riley Hospital for Children, Indiana University, Indianapolis, Indiana;; Division of Pulmonary and Critical Care Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, Massachusetts;; University of Wisconsin-Madison School of Medicine and Public Health, Pulmonary and Critical Care Facility, Madison, Wisconsin, United States; Division of Pulmonary and Critical Care Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, Massachusetts;; Department of Public Health Sciences, College of Medicine, Penn State University, Hershey, Pennsylvania;; Wake Forest School of Medicine, Winston-Salem, North Carolina, United States; Lerner Research Institute and the Respiratory Institute, Cleveland Clinic, Cleveland, Ohio;; Division of Pulmonary, Critical Care, and Sleep Medicine, Department of Internal Medicine, Yale School of Medicine, New Haven, Connecticut; and; University of Pittsburgh, Division of Pulmonary, Allergy and Critical Care Medicine, Pittsburgh, Pennsylvania, United States; UCSF, Division of Pulmonary and Critical Care Medicine, Department of Medicine and CVRI, San Francisco, California, United States; Division of Genetics, Genomics, and Precision Medicine, and; Division of Genetics, Genomics, and Precision Medicine, and</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294771423</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Low CC16 mRNA Expression Levels in Bronchial Epithelial Cells Are Associated with Asthma Severity</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202206-1230oc</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36066606</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202206-1230oc</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>School of Public Health, Baotou Medical College, Baotou, China; School of Public Health, Baotou Medical College, Baotou, China; School of Public Health, Baotou Medical College, Baotou, China; School of Public Health, Baotou Medical College, Baotou, China; School of Public Health, Inner Mongolia Medical University, Hohhot, China; Inner Mongolia Key Laboratory of Disease-Related Biomarkers, The Second Affiliated Hospital, Baotou Medical College, Baotou, China</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362473071</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Research progress on complications of Brucellosis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frontiers in Cellular and Infection Microbiology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcimb.2023.1136674</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37065189</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcimb.2023.1136674</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ, USA; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ, USA; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of California at San Francisco, San Francisco, CA, USA; Division of Pulmonary, Critical Care and Sleep Medicine, University of Kansas School of Medicine, Kansas City, KS, USA; Department of Medicine, University of Wisconsin School of Medicine &amp; Public Health, Madison, WI, USA; Lerner Research Institute and the Respiratory Institute, Cleveland Clinic, Cleveland, OH, USA; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of California at San Francisco, San Francisco, CA, USA; Wells Center for Pediatric Research and Riley Hospital for Children, Indiana University, Indianapolis, IN, USA; Division of Pulmonary and Critical Care Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA, USA; Department of Medicine, University of Wisconsin School of Medicine &amp; Public Health, Madison, WI, USA; Division of Pulmonary and Critical Care Medicine, Brigham and Women’s Hospital and Harvard Medical School, Boston, MA, USA; Department of Public Health Sciences, College of Medicine, Penn State University, Hershey, PA, USA; Department of Medicine, Wake Forest School of Medicine, Winston-Salem, NC, USA; Lerner Research Institute and the Respiratory Institute, Cleveland Clinic, Cleveland, OH, USA; Division of Pulmonary, Critical Care and Sleep Medicine, Department of Internal Medicine, Yale School of Medicine, New Haven, CT, USA; Department of Environmental and Occupational Health, University of Pittsburgh, Pittsburgh, PA, USA; Division of Pulmonary, Critical Care, Sleep and Allergy, Department of Medicine, University of California at San Francisco, San Francisco, CA, USA; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ, USA; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4353020735</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Genetic analyses of chr11p15.5 region identify &lt;i&gt;MUC5AC&lt;/i&gt;-&lt;i&gt;MUC5B&lt;/i&gt; associated with asthma-related phenotypes</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Asthma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/02770903.2023.2193631</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36946148</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/02770903.2023.2193631</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Center for Statistical Genetics, Department of Biostatistics, University of Michigan School of Public Health, Ann Arbor, MI 48109, USA.; Department of Biostatistics, University of Washington, Seattle, WA 98195, USA.; Department of Biostatistics, University of Washington, Seattle, WA 98195, USA.; Division of Medical Genetics, Department of Medicine, University of Washington, Seattle, WA 98195, USA.; The Institute for Translational Genomics and Population Sciences, Department of Pediatrics, The Lundquist Institute for Biomedical Innovation at Harbor-UCLA Medical Center, Torrance, CA 90502, USA.; The Institute for Translational Genomics and Population Sciences, Department of Pediatrics, The Lundquist Institute for Biomedical Innovation at Harbor-UCLA Medical Center, Torrance, CA 90502, USA.; Department of Medicine, University of Maryland, Baltimore, Baltimore, MD 21201, USA.; Department of Medicine, University of Maryland, Baltimore, Baltimore, MD 21201, USA.; Department of Medicine, University of Maryland, Baltimore, Baltimore, MD 21201, USA.; Human Genome Sequencing Center, Baylor College of Medicine, Houston, TX 77030, USA.; Division of Biomedical Informatics and Personalized Medicine, Department of Medicine, University of Colorado Anschutz Medical Campus, Aurora, CO 80045, USA.; The Charles Bronfman Institute of Personalized Medicine, Icahn School of Medicine at Mount Sinai, New York, NY 10029, USA.; The Mindich Child Health and Development Institute, Icahn School of Medicine at Mount Sinai, New York, NY 10029, USA.; Institute for Genomic Health, Icahn School of Medicine at Mount Sinai, New York, NY 10029, USA.; The Charles Bronfman Institute of Personalized Medicine, Icahn School of Medicine at Mount Sinai, New York, NY 10029, USA.; The Mindich Child Health and Development Institute, Icahn School of Medicine at Mount Sinai, New York, NY 10029, USA.; Brown Foundation Institute of Molecular Medicine, McGovern Medical School, University of Texas Health Science Center at Houston, Houston, TX 77030, USA.; Department of Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Harvard Medical School, Boston, MA 02115, USA.; Department of Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Harvard Medical School, Boston, MA 02115, USA.; Program in Medical and Population Genetics, Broad Institute of Harvard and MIT, Cambridge, MA 02142, USA.; Department of Preventive Medicine, University of Southern California, Los Angeles, CA 90089, USA.; Department of Preventive Medicine, University of Southern California, Los Angeles, CA 90089, USA.; Department of Preventive Medicine, University of Southern California, Los Angeles, CA 90089, USA.; Ann and Robert H. Lurie Children’s Hospital of Chicago, Chicago, IL 60611, USA.; Northwestern University Feinberg School of Medicine, Chicago, IL 60611, USA.; Northwestern University Feinberg School of Medicine, Chicago, IL 60611, USA.; Northwestern University Feinberg School of Medicine, Chicago, IL 60611, USA.; Cardiovascular Health Research Unit, Department of Medicine, University of Washington, Seattle, WA 98195, USA.; Department of Epidemiology, University of Washington, Seattle, WA 98195, USA.; Department of Medicine, University of Washington, Seattle, WA 98195, USA.; Cardiovascular Health Research Unit, Department of Medicine, University of Washington, Seattle, WA 98195, USA.; Cardiovascular Health Research Unit, Department of Medicine, University of Washington, Seattle, WA 98195, USA.; Channing Division of Network Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Channing Division of Network Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Channing Division of Network Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Channing Division of Network Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Department of Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Channing Division of Network Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Department of Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Channing Division of Network Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Department of Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; Department of Biochemistry, Wake Forest School of Medicine, Winston-Salem, NC 27101, USA.; Department of Internal Medicine, Section on Nephrology, Wake Forest School of Medicine, Winston-Salem, NC 27101, USA.; Department of Biochemistry, Wake Forest School of Medicine, Winston-Salem, NC 27101, USA.; Channing Division of Network Medicine and Division of Pulmonary and Critical Care Medicine, Brigham and Women’s Hospital, Boston, MA 02115, USA.; National Heart, Lung, and Blood Institute’s, Boston University’s Framingham Heart Study, Framingham, MA 01701, USA.; National Heart, Lung and Blood Institute, Population Sciences Branch, Framingham, MA 01701, USA.; National Heart, Lung, and Blood Institute’s, Boston University’s Framingham Heart Study, Framingham, MA 01701, USA.; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD 21205, USA.; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD 21205, USA.; Department of Epidemiology, School of Public Health, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Epidemiology, Tulane University School of Public Health and Tropical Medicine, New Orleans, LA 70112, USA.; Department of Epidemiology and Population Health, Albert Einstein College of Medicine, Bronx, NY 10461, USA.; Department of Epidemiology, University of Washington, Seattle, WA 98195, USA.; Kaiser Permanente Washington Health Research Institute, Kaiser Permanente Washington, Seattle, WA 98101, USA.; Department of Epidemiology, University of Washington, Seattle, WA 98195, USA.; Kaiser Permanente Washington Health Research Institute, Kaiser Permanente Washington, Seattle, WA 98101, USA.; Seattle Epidemiologic Research and Information Center, Department of Veterans Affairs Office of Research and Development, Seattle, WA 98108, USA.; Cardiovascular Health Research Unit, Department of Medicine, University of Washington, Seattle, WA 98101, USA.; Dean’s Office, College of Public Health, University of Kentucky, Lexington, KY 40506, USA.; University of Alabama at Birmingham, Birmingham, AL 35294, USA.; University of Alabama at Birmingham, Birmingham, AL 35294, USA.; Department of Medicine, Jackson Heart Study, University of Mississippi Medical Center, Jackson, MS 39216, USA.; Department of Genetics, University of North Carolina at Chapel Hill, Chapel Hill, NC 27599, USA.; Department of Medicine, University of Mississippi Medical Center, Jackson, MS 39216, USA.; Department of Health Sciences Research, Mayo Clinic, Rochester, MN 55905, USA.; The Institute for Translational Genomics and Population Sciences, Department of Pediatrics, The Lundquist Institute for Biomedical Innovation at Harbor-UCLA Medical Center, Torrance, CA 90502, USA.; Department of Public Health Sciences, Center for Public Health Genomics, University of Virginia, Charlottesville, VA 22903, USA.; Department of Public Health Sciences, Center for Public Health Genomics, University of Virginia, Charlottesville, VA 22903, USA.; Department of Medicine, University of Washington, Seattle, WA 98195, USA.; Department of Medicine, University of Washington, Seattle, WA 98195, USA.; Research Institute, Bloodworks Northwest, Seattle, WA 98102, USA.; Genome Science, University of Washington, Seattle, WA 98195, USA.; Vitalant Research Institute, San Francisco, CA 94105, USA.; Department of Human Genetics, University of Texas Rio Grande Valley School of Medicine, Brownsville, TX 78520, USA.; South Texas Diabetes and Obesity Institute, University of Texas Rio Grande Valley School of Medicine, Brownsville, TX 78520, USA.; Department of Human Genetics, University of Texas Rio Grande Valley School of Medicine, Brownsville, TX 78520, USA.; South Texas Diabetes and Obesity Institute, University of Texas Rio Grande Valley School of Medicine, Brownsville, TX 78520, USA.; Department of Human Genetics, University of Texas Rio Grande Valley School of Medicine, Brownsville, TX 78520, USA.; South Texas Diabetes and Obesity Institute, University of Texas Rio Grande Valley School of Medicine, Brownsville, TX 78520, USA.; Center for Individualized and Genomic Medicine Research (CIGMA), Henry Ford Health System, Detroit, MI 48202, USA.; Department of Medicine, Henry Ford Health System, Detroit, MI 48202, USA.; Center for Individualized and Genomic Medicine Research (CIGMA), Henry Ford Health System, Detroit, MI 48202, USA.; Department of Medicine, Henry Ford Health System, Detroit, MI 48202, USA.; Center for Individualized and Genomic Medicine Research (CIGMA), Henry Ford Health System, Detroit, MI 48202, USA.; Department of Medicine, Henry Ford Health System, Detroit, MI 48202, USA.; Division of Genetics, Genomics, and Precision Medicine, University of Arizona, Tucson, AZ 85721, USA.; Department of Medicine, University of Arizona, Tucson, AZ 85721, USA.; Wake Forest University School of Medicine, Winston-Salem, NC 27101, USA.; Department of Epidemiology and International Health Institute, Brown University School of Public Health, Providence, RI 02903, USA.; Division of Biostatistics, Washington University School of Medicine, Campus Box 8067, 660 S. Euclid Avenue, St. Louis, MO 63110, USA.; The Institute for Translational Genomics and Population Sciences, Department of Pediatrics, The Lundquist Institute for Biomedical Innovation at Harbor-UCLA Medical Center, Torrance, CA 90502, USA.; Department of Medical Research, Taichung Veterans General Hospital, 1650, Sec. 4, Taiwan Boulevard, Taichung City, Taiwan.; Division of Cardiology, Vanderbilt University Medical Center, Nashville, TN 37232, USA.; Division of Cardiology, University of Illinois at Chicago, Chicago, IL 60607, USA.; Departments of Medicine, Pharmacology, and Biomedical Informatics, Vanderbilt University Medical Center, Nashville, TN 37232, USA.; Department of Cardiology, Cedars-Sinai, Los Angeles, CA 90048, USA.; Division of Public Health Sciences, Fred Hutchinson Cancer Research Center, Seattle, WA 98109, USA.; Division of Hematology and Oncology, Weill Cornell Medicine, New York, NY 10065, USA.; Center for Statistical Genetics, Department of Biostatistics, University of Michigan School of Public Health, Ann Arbor, MI 48109, USA.; Center for Statistical Genetics, Department of Biostatistics, University of Michigan School of Public Health, Ann Arbor, MI 48109, USA.; Regeneron Pharmaceuticals, Tarrytown, NY 10591, USA.; Center for Statistical Genetics, Department of Biostatistics, University of Michigan School of Public Health, Ann Arbor, MI 48109, USA.; Center for Statistical Genetics, Department of Biostatistics, University of Michigan School of Public Health, Ann Arbor, MI 48109, USA.; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD 21205, USA.; Cardiovascular Research Center, Massachusetts General Hospital, Boston, MA 02114, USA.; Department of Medicine, Harvard Medical School, Boston, MA 02115, USA.; Program in Medical and Population Genetics, Broad Institute of Harvard and MIT, Cambridge, MA 02142, USA.; Department of Pathology, Stanford University, Stanford, CA 94305, USA.; Department of Epidemiology, University of Washington, Seattle, WA 98195, USA.; Division of Public Health Sciences, Fred Hutchinson Cancer Research Center, Seattle, WA 98109, USA.; Division of Genetic Medicine, Department of Medicine, Vanderbilt University, Nashville, TN 37232, USA.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367059866</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>The genetic determinants of recurrent somatic mutations in 43,693 blood genomes</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Science Advances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>American Association for the Advancement of Science</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1126/sciadv.abm4945</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37126548</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1126/sciadv.abm4945</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona College of Medicine, Tucson, Ariz; Department of Medicine, University of Arizona College of Medicine, Tucson, Ariz; Arizona Statistical Consulting, University of Arizona College of Public Health, Tucson, Ariz; Department of Medicine, University of Arizona College of Medicine, Tucson, Ariz; Late-stage Respiratory &amp; Immunology, AstraZeneca, Gaithersburg, Md; BioPharmaceuticals Medical, AstraZeneca, Gaithersburg, Md; Biometrics, Vaccines &amp; Immune Therapies, BioPharmaceuticals R&amp;D, AstraZeneca, Cambridge, UK; BioPharmaceuticals Medical, AstraZeneca, Gaithersburg, Md; Department of Medicine, University of Arizona College of Medicine, Tucson, Ariz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4322743728</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Clinical Implications of Longitudinal Blood Eosinophil Counts in Patients With Severe Asthma</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The Journal of Allergy and Clinical Immunology: In Practice</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2023.02.020</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36868471</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaip.2023.02.020</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ, USA; Division of Pulmonary, Critical Care and Sleep Medicine, University of Kansas School of Medicine, Kansas City, KS, USA; Department of Medicine, University of Wisconsin School of Medicine &amp; Public Health, Madison, WI, USA; Lerner Research Institute and the Respiratory Institute, Cleveland Clinic, Cleveland, OH, USA; Division of Pulmonary and Critical Care Medicine, Department of Medicine, University of California at San Francisco, San Francisco, CA, USA; Wells Center for Pediatric Research and Riley Hospital for Children, Indiana University, Indianapolis, IN, USA; Division of Pulmonary and Critical Care Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA, USA; Department of Medicine, University of Wisconsin School of Medicine &amp; Public Health, Madison, WI, USA; Division of Pulmonary and Critical Care Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA, USA; Department of Public Health Sciences, College of Medicine, Penn State University, Hershey, PA, USA; Department of Medicine, Wake Forest School of Medicine, Winston-Salem, NC, USA; Department of Environmental and Occupational Health, University of Pittsburgh, Pittsburgh, PA, USA; Lerner Research Institute and the Respiratory Institute, Cleveland Clinic, Cleveland, OH, USA; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ, USA; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ, USA; Department of Pharmacology and Toxicology, School of Pharmacy, University of Arizona, Tucson, AZ, USA; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4327899963</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Investigations of a combination of atopic status and age of asthma onset identify asthma subphenotypes</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-04-21</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Asthma</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/02770903.2023.2193634</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36940238</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/02770903.2023.2193634</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,24 +974,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366983696</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Service importance-aware virtual embedding strategy for power optical communication network</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,14 +999,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1117/12.2673169</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1117/12.2673169</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4377008250</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Impact of Bronchiectasis on COPD Severity and Alpha-1 Antitrypsin Deficiency as a Risk Factor in Individuals with a Heavy Smoking History</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Chronic obstructive pulmonary diseases</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>COPD Foundation</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.15326/jcopdf.2022.0388</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37199731</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.15326/jcopdf.2022.0388</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,42 +1143,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bo Li, Xingnan Li, Prakit Saingam, Tao Yan</t>
+          <t>Xingnan Li, Xiaozhi Deng, Zhan Shi, Zhihua Yang, Xin Qian</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383533147</t>
+          <t>Communication Management Department, Power Dispatching Control Center, Guangdong Power Grid Co., Ltd., Guangdong, China; Communication Management Department, Power Dispatching Control Center, Guangdong Power Grid Co., Ltd., Guangdong, China; Communication Management Department, Power Dispatching Control Center, Guangdong Power Grid Co., Ltd., Guangdong, China; Science Innovation Department, Guangdong Electric Power Communication Technology Co. Ltd., Guangdong, China; Science Innovation Department, Guangdong Electric Power Communication Technology Co. Ltd., Guangdong, China</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Understanding the Microbiological Quality of Drinking Water at the Point of Consumption with Citizen Science</t>
+          <t>https://openalex.org/W4384026380</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>Reliable Aggregation Method of Power Line Communication Subcarriers in Complex Power Electronic Colored Noise Environment</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ACS ES&amp;T Water</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>American Chemical Society</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsestwater.3c00184</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1109/icmsp58539.2023.10170963</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1021/acsestwater.3c00184</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/icmsp58539.2023.10170963</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Xiaozhi Deng, Bo Li, Xingnan Li, Zhentian Wu, Zhihua Yang</t>
+          <t>Manuel Izquierdo, Chad R. Marion, Frank Genese, John D. Newell, Wanda K. O’Neal, Xingnan Li, Gregory A. Hawkins, Igor Barjaktarević, R. Graham Barr, Stephanie A. Christenson, Christopher B. Cooper, David J. Couper, Jeffrey M. Curtis, MeiLan K. Han, Nadia N. Hansel, Richard E. Kanner, Fernando J. Martínez, Robert Paine, Vickram Tejwani, Prescott G. Woodruff, Joe Zein, Eric A. Hoffman, Stephen P. Peters, Deborah A. Meyers, Eugene R. Bleecker, Victor E. Ortega</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383988695</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Container and Microservice-Based Resource Management for Distribution Station Area</t>
+          <t>https://openalex.org/W4385267546</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>Impact of Bronchiectasis on COPD Severity and Alpha-1 Antitrypsin Deficiency as a Risk Factor in Individuals with a Heavy Smoking History</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Chronic obstructive pulmonary diseases</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icmsp58539.2023.10170832</t>
+          <t>COPD Foundation</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.15326/jcopdf.2023.0388</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icmsp58539.2023.10170832</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37199731</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.15326/jcopdf.2023.0388</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Xingnan Li, Xiaozhi Deng, Zhan Shi, Zhihua Yang, Xin Qian</t>
+          <t>Huashi Li, Xingnan Li</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384026380</t>
+          <t>Statistics Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ, USA; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Reliable Aggregation Method of Power Line Communication Subcarriers in Complex Power Electronic Colored Noise Environment</t>
+          <t>https://openalex.org/W4385716105</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>Genetic relationships between high blood eosinophil count, asthma susceptibility, and asthma severity</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Asthma</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icmsp58539.2023.10170963</t>
+          <t>Taylor &amp; Francis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1080/02770903.2023.2247490</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icmsp58539.2023.10170963</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37560908</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/02770903.2023.2247490</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Manuel Izquierdo, Chad R. Marion, Frank Genese, John D. Newell, Wanda K. O’Neal, Xingnan Li, Gregory A. Hawkins, Igor Barjaktarević, R. Graham Barr, Stephanie A. Christenson, Christopher B. Cooper, David J. Couper, Jeffrey M. Curtis, MeiLan K. Han, Nadia N. Hansel, Richard E. Kanner, Fernando J. Martínez, Robert Paine, Vickram Tejwani, Prescott G. Woodruff, Joe Zein, Eric A. Hoffman, Stephen P. Peters, Deborah A. Meyers, Eugene R. Bleecker, Victor E. Ortega</t>
+          <t>Zhan Shi, Xiaozhi Deng, Xingnan Li, Zhihua Yang, Xiaohong Qian</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385267546</t>
+          <t xml:space="preserve">Communication Management Department, Guangdong Power Grid Co., Ltd. Power Dispatching Control Center, Guangdong, China; Communication Management Department, Guangdong Power Grid Co., Ltd. Power Dispatching Control Center, Guangdong, China; Communication Management Department, Guangdong Power Grid Co., Ltd. Power Dispatching Control Center, Guangdong, China; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Impact of Bronchiectasis on COPD Severity and Alpha-1 Antitrypsin Deficiency as a Risk Factor in Individuals with a Heavy Smoking History</t>
+          <t>https://openalex.org/W4387049368</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Value Gain-based Power Line Subcarrier Aggregation Method under Colored Noise</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chronic obstructive pulmonary diseases</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>COPD Foundation</t>
+          <t>Journal of Physics: Conference Series</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15326/jcopdf.2023.0388</t>
+          <t>IOP Publishing</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1088/1742-6596/2584/1/012132</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37199731</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15326/jcopdf.2023.0388</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1742-6596/2584/1/012132</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,42 +1491,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Huashi Li, Xingnan Li</t>
+          <t>Xingnan Li, Jiangang Lü, Peiming Zhang</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385716105</t>
+          <t>Power Dispatching Control Center of Guangdong Power Grid Co., Ltd,Guangzhou,China; Power Dispatching Control Center of Guangdong Power Grid Co., Ltd,Guangzhou,China; Power Dispatching Control Center of Guangdong Power Grid Co., Ltd,Guangzhou,China</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Genetic relationships between high blood eosinophil count, asthma susceptibility, and asthma severity</t>
+          <t>https://openalex.org/W4387251115</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>A GNN-Based Routing and Scheduling Mechanism for Multi-domain Computing First Network</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Journal of Asthma</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Taylor &amp; Francis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02770903.2023.2247490</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1109/ccis59572.2023.10262822</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1471,35 +1536,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37560908</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02770903.2023.2247490</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ccis59572.2023.10262822</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Zhan Shi, Xiaozhi Deng, Xingnan Li, Zhihua Yang, Xiaohong Qian</t>
+          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael G. Johnson, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387049368</t>
+          <t>University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; Basis Tucson North, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Value Gain-based Power Line Subcarrier Aggregation Method under Colored Noise</t>
+          <t>https://openalex.org/W4387979514</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>CC16 Induces Pulmonary Epithelial-Driven SPLUNC1 Expression by Signaling through VLA-2.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Journal of Physics: Conference Series</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>IOP Publishing</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1742-6596/2584/1/012132</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1088/1742-6596/2584/1/012132</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,80 +1665,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Xingnan Li, Jiangang Lü, Peiming Zhang</t>
+          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael D. L. Johnson, Joselyn Rojas, Francesca Polverino, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387251115</t>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; BASIS Tucson North, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Baylor College of Medicine, Houston, TX, United States; Baylor College of Medicine, Houston, TX, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Genetics, Genomics, and Precision Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A GNN-Based Routing and Scheduling Mechanism for Multi-domain Computing First Network</t>
+          <t>https://openalex.org/W4388832621</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>CC16 drives VLA-2-dependent SPLUNC1 expression</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Frontiers in Immunology</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ccis59572.2023.10262822</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ccis59572.2023.10262822</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38053993</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,27 +1752,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael G. Johnson, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
+          <t>Peiming Zhang, Xingnan Li, Yuanjie Liu</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387979514</t>
+          <t>Guangdong Power Grid Co.,Ltd,Power Dispatching Control Center,Guangdong,China; Guangdong Power Grid Co.,Ltd,Power Dispatching Control Center,Guangdong,China; Guangdong Power Grid Co.,Ltd,Power Dispatching Control Center,Guangdong,China</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CC16 Induces Pulmonary Epithelial-Driven SPLUNC1 Expression by Signaling through VLA-2.</t>
+          <t>https://openalex.org/W4390187821</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>Routing Optimization Mechanism for SRv6 Based Power Data Network</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1702,12 +1782,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1109/wsce59557.2023.10365774</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1717,35 +1797,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/wsce59557.2023.10365774</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,80 +1839,85 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael D. L. Johnson, Joselyn Rojas, Francesca Polverino, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
+          <t>Ilka Hoof, Klaus Bønnelykke, Thomas Stranzl, Stéphanie Brand, Xingnan Li, Mohamed H. Shamji, Deborah A. Meyers, Eric D. Bateman, Eugene R. Bleecker, Peter S. Andersen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388832621</t>
+          <t>Translational Research, Alk-Abello A/S, Horsholm, Denmark; Copenhagen Prospective Studies on Asthma in Childhood, Copenhagen University Hospital, Copenhagen, Denmark; Translational Research, Alk-Abello A/S, Horsholm, Denmark; Translational Research, Alk-Abello A/S, Horsholm, Denmark; Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona, USA; National Heart and Lung Institute, Imperial College London, London, UK; Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona, USA; Division of Respiratory Medicine, Univ of Cape Town, Cape Town, South Africa; Medicine, University of Arizona, Health Sciences Center, Tucson, Arizona, USA; Translational Research, Alk-Abello A/S, Horsholm 2970, Denmark</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CC16 drives VLA-2-dependent SPLUNC1 expression</t>
+          <t>https://openalex.org/W4390451374</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>Genetic and T2 biomarkers linked to the efficacy of HDM sublingual immunotherapy in asthma</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Frontiers in Immunology</t>
+          <t>2023-12-30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Thorax</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
+          <t>BMJ</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1136/thorax-2023-220707</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38053993</t>
-        </is>
-      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38160049</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1136/thorax-2023-220707</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,42 +1926,42 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Peiming Zhang, Xingnan Li, Yuanjie Liu</t>
+          <t>Bo Li, Xingnan Li, Prakit Saingam, Tao Yan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390187821</t>
+          <t>Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States; Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States; Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States; Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Routing Optimization Mechanism for SRv6 Based Power Data Network</t>
+          <t>https://openalex.org/W4383533147</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>Understanding the Microbiological Quality of Drinking Water at the Point of Consumption with Citizen Science</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ACS ES&amp;T Water</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/wsce59557.2023.10365774</t>
+          <t>American Chemical Society</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1021/acsestwater.3c00184</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1881,35 +1971,40 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/wsce59557.2023.10365774</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/acsestwater.3c00184</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,42 +2013,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ilka Hoof, Klaus Bønnelykke, Thomas Stranzl, Stéphanie Brand, Xingnan Li, Mohamed H. Shamji, Deborah A. Meyers, Eric D. Bateman, Eugene R. Bleecker, Peter S. Andersen</t>
+          <t>Xiaozhi Deng, Bo Li, Xingnan Li, Zhentian Wu, Zhihua Yang</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390451374</t>
+          <t>Guangdong Power Grid Co., Ltd.,Power Dispatching and Control Center,Communication Management Department,Guangdong,China; Guangdong Power Grid Co., Ltd.,Power Dispatching and Control Center,Communication Management Department,Guangdong,China; Guangdong Power Grid Co., Ltd.,Power Dispatching and Control Center,Communication Management Department,Guangdong,China; Guangdong Electric Power Communication Technology Co. Ltd.,Science Innovation Department,Guangdong,China; Guangdong Electric Power Communication Technology Co. Ltd.,Science Innovation Department,Guangdong,China</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Genetic and T2 biomarkers linked to the efficacy of HDM sublingual immunotherapy in asthma</t>
+          <t>https://openalex.org/W4383988695</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-12-30</t>
+          <t>Container and Microservice-Based Resource Management for Distribution Station Area</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Thorax</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BMJ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/thorax-2023-220707</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1109/icmsp58539.2023.10170832</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1963,35 +2058,40 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38160049</t>
-        </is>
-      </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/thorax-2023-220707</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/icmsp58539.2023.10170832</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Xingnan Li_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Xingnan Li_2023.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -969,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ying Zeng, Peiming Zhang, Xingnan Li, Zhan Shi</t>
+          <t>Ilka Hoof, Klaus Bønnelykke, Thomas Stranzl, Stéphanie Brand, Xingnan Li, Mohamed H. Shamji, Deborah A. Meyers, Eric D. Bateman, Eugene R. Bleecker, Peter S. Andersen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China)</t>
+          <t>Translational Research, Alk-Abello A/S, Horsholm, Denmark; Copenhagen Prospective Studies on Asthma in Childhood, Copenhagen University Hospital, Copenhagen, Denmark; Translational Research, Alk-Abello A/S, Horsholm, Denmark; Translational Research, Alk-Abello A/S, Horsholm, Denmark; Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona, USA; National Heart and Lung Institute, Imperial College London, London, UK; Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona, USA; Division of Respiratory Medicine, Univ of Cape Town, Cape Town, South Africa; Medicine, University of Arizona, Health Sciences Center, Tucson, Arizona, USA; Translational Research, Alk-Abello A/S, Horsholm 2970, Denmark</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4366983696</t>
+          <t>https://openalex.org/W4390451374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Service importance-aware virtual embedding strategy for power optical communication network</t>
+          <t>Genetic and T2 biomarkers linked to the efficacy of HDM sublingual immunotherapy in asthma</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2023-12-30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Thorax</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>BMJ</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2673169</t>
+          <t>https://doi.org/10.1136/thorax-2023-220707</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38160049</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2673169</t>
+          <t>https://doi.org/10.1136/thorax-2023-220707</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,42 +1056,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Manuel Izquierdo, Chad R. Marion, Frank Genese, John D. Newell, Wanda K. O’Neal, Xingnan Li, Gregory A. Hawkins, Igor Barjaktarević, R. Graham Barr, Stephanie A. Christenson, Christopher B. Cooper, David J. Couper, Jeffrey M. Curtis, MeiLan K. Han, Nadia N. Hansel, Richard E. Kanner, Fernando J. Martínez, Robert Paine, Vickram Tejwani, Prescott G. Woodruff, Joe Zein, Eric A. Hoffman, Stephen P. Peters, Deborah A. Meyers, Eugene R. Bleecker, Victor E. Ortega</t>
+          <t>Ying Zeng, Peiming Zhang, Xingnan Li, Zhan Shi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China); Guangdong Power Grid Co., Ltd. Power Dispatching and Control Center (China)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377008250</t>
+          <t>https://openalex.org/W4366983696</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Impact of Bronchiectasis on COPD Severity and Alpha-1 Antitrypsin Deficiency as a Risk Factor in Individuals with a Heavy Smoking History</t>
+          <t>Service importance-aware virtual embedding strategy for power optical communication network</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Chronic obstructive pulmonary diseases</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>COPD Foundation</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15326/jcopdf.2022.0388</t>
+          <t>https://doi.org/10.1117/12.2673169</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37199731</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15326/jcopdf.2022.0388</t>
+          <t>https://doi.org/10.1117/12.2673169</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,42 +1143,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Xingnan Li, Xiaozhi Deng, Zhan Shi, Zhihua Yang, Xin Qian</t>
+          <t>Manuel Izquierdo, Chad R. Marion, Frank Genese, John D. Newell, Wanda K. O’Neal, Xingnan Li, Gregory A. Hawkins, Igor Barjaktarević, R. Graham Barr, Stephanie A. Christenson, Christopher B. Cooper, David J. Couper, Jeffrey M. Curtis, MeiLan K. Han, Nadia N. Hansel, Richard E. Kanner, Fernando J. Martínez, Robert Paine, Vickram Tejwani, Prescott G. Woodruff, Joe Zein, Eric A. Hoffman, Stephen P. Peters, Deborah A. Meyers, Eugene R. Bleecker, Victor E. Ortega</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Communication Management Department, Power Dispatching Control Center, Guangdong Power Grid Co., Ltd., Guangdong, China; Communication Management Department, Power Dispatching Control Center, Guangdong Power Grid Co., Ltd., Guangdong, China; Communication Management Department, Power Dispatching Control Center, Guangdong Power Grid Co., Ltd., Guangdong, China; Science Innovation Department, Guangdong Electric Power Communication Technology Co. Ltd., Guangdong, China; Science Innovation Department, Guangdong Electric Power Communication Technology Co. Ltd., Guangdong, China</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384026380</t>
+          <t>https://openalex.org/W4377008250</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Reliable Aggregation Method of Power Line Communication Subcarriers in Complex Power Electronic Colored Noise Environment</t>
+          <t>Impact of Bronchiectasis on COPD Severity and Alpha-1 Antitrypsin Deficiency as a Risk Factor in Individuals with a Heavy Smoking History</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Chronic obstructive pulmonary diseases</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>COPD Foundation</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icmsp58539.2023.10170963</t>
+          <t>https://doi.org/10.15326/jcopdf.2022.0388</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1188,12 +1188,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37199731</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icmsp58539.2023.10170963</t>
+          <t>https://doi.org/10.15326/jcopdf.2022.0388</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Manuel Izquierdo, Chad R. Marion, Frank Genese, John D. Newell, Wanda K. O’Neal, Xingnan Li, Gregory A. Hawkins, Igor Barjaktarević, R. Graham Barr, Stephanie A. Christenson, Christopher B. Cooper, David J. Couper, Jeffrey M. Curtis, MeiLan K. Han, Nadia N. Hansel, Richard E. Kanner, Fernando J. Martínez, Robert Paine, Vickram Tejwani, Prescott G. Woodruff, Joe Zein, Eric A. Hoffman, Stephen P. Peters, Deborah A. Meyers, Eugene R. Bleecker, Victor E. Ortega</t>
+          <t>Bo Li, Xingnan Li, Prakit Saingam, Tao Yan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States; Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States; Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States; Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385267546</t>
+          <t>https://openalex.org/W4383533147</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Impact of Bronchiectasis on COPD Severity and Alpha-1 Antitrypsin Deficiency as a Risk Factor in Individuals with a Heavy Smoking History</t>
+          <t>Understanding the Microbiological Quality of Drinking Water at the Point of Consumption with Citizen Science</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-07-07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Chronic obstructive pulmonary diseases</t>
+          <t>ACS ES&amp;T Water</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>COPD Foundation</t>
+          <t>American Chemical Society</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15326/jcopdf.2023.0388</t>
+          <t>https://doi.org/10.1021/acsestwater.3c00184</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37199731</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15326/jcopdf.2023.0388</t>
+          <t>https://doi.org/10.1021/acsestwater.3c00184</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Huashi Li, Xingnan Li</t>
+          <t>Xiaozhi Deng, Bo Li, Xingnan Li, Zhentian Wu, Zhihua Yang</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Statistics Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ, USA; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ, USA</t>
+          <t>Guangdong Power Grid Co., Ltd.,Power Dispatching and Control Center,Communication Management Department,Guangdong,China; Guangdong Power Grid Co., Ltd.,Power Dispatching and Control Center,Communication Management Department,Guangdong,China; Guangdong Power Grid Co., Ltd.,Power Dispatching and Control Center,Communication Management Department,Guangdong,China; Guangdong Electric Power Communication Technology Co. Ltd.,Science Innovation Department,Guangdong,China; Guangdong Electric Power Communication Technology Co. Ltd.,Science Innovation Department,Guangdong,China</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385716105</t>
+          <t>https://openalex.org/W4383988695</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Genetic relationships between high blood eosinophil count, asthma susceptibility, and asthma severity</t>
+          <t>Container and Microservice-Based Resource Management for Distribution Station Area</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Journal of Asthma</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Taylor &amp; Francis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02770903.2023.2247490</t>
+          <t>https://doi.org/10.1109/icmsp58539.2023.10170832</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37560908</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02770903.2023.2247490</t>
+          <t>https://doi.org/10.1109/icmsp58539.2023.10170832</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,42 +1404,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Zhan Shi, Xiaozhi Deng, Xingnan Li, Zhihua Yang, Xiaohong Qian</t>
+          <t>Xingnan Li, Xiaozhi Deng, Zhan Shi, Zhihua Yang, Xin Qian</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Communication Management Department, Guangdong Power Grid Co., Ltd. Power Dispatching Control Center, Guangdong, China; Communication Management Department, Guangdong Power Grid Co., Ltd. Power Dispatching Control Center, Guangdong, China; Communication Management Department, Guangdong Power Grid Co., Ltd. Power Dispatching Control Center, Guangdong, China; ; </t>
+          <t>Communication Management Department, Power Dispatching Control Center, Guangdong Power Grid Co., Ltd., Guangdong, China; Communication Management Department, Power Dispatching Control Center, Guangdong Power Grid Co., Ltd., Guangdong, China; Communication Management Department, Power Dispatching Control Center, Guangdong Power Grid Co., Ltd., Guangdong, China; Science Innovation Department, Guangdong Electric Power Communication Technology Co. Ltd., Guangdong, China; Science Innovation Department, Guangdong Electric Power Communication Technology Co. Ltd., Guangdong, China</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387049368</t>
+          <t>https://openalex.org/W4384026380</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Value Gain-based Power Line Subcarrier Aggregation Method under Colored Noise</t>
+          <t>Reliable Aggregation Method of Power Line Communication Subcarriers in Complex Power Electronic Colored Noise Environment</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Journal of Physics: Conference Series</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>IOP Publishing</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1742-6596/2584/1/012132</t>
+          <t>https://doi.org/10.1109/icmsp58539.2023.10170963</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1742-6596/2584/1/012132</t>
+          <t>https://doi.org/10.1109/icmsp58539.2023.10170963</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,42 +1491,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Xingnan Li, Jiangang Lü, Peiming Zhang</t>
+          <t>Manuel Izquierdo, Chad R. Marion, Frank Genese, John D. Newell, Wanda K. O’Neal, Xingnan Li, Gregory A. Hawkins, Igor Barjaktarević, R. Graham Barr, Stephanie A. Christenson, Christopher B. Cooper, David J. Couper, Jeffrey M. Curtis, MeiLan K. Han, Nadia N. Hansel, Richard E. Kanner, Fernando J. Martínez, Robert Paine, Vickram Tejwani, Prescott G. Woodruff, Joe Zein, Eric A. Hoffman, Stephen P. Peters, Deborah A. Meyers, Eugene R. Bleecker, Victor E. Ortega</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Power Dispatching Control Center of Guangdong Power Grid Co., Ltd,Guangzhou,China; Power Dispatching Control Center of Guangdong Power Grid Co., Ltd,Guangzhou,China; Power Dispatching Control Center of Guangdong Power Grid Co., Ltd,Guangzhou,China</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387251115</t>
+          <t>https://openalex.org/W4385267546</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A GNN-Based Routing and Scheduling Mechanism for Multi-domain Computing First Network</t>
+          <t>Impact of Bronchiectasis on COPD Severity and Alpha-1 Antitrypsin Deficiency as a Risk Factor in Individuals with a Heavy Smoking History</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Chronic obstructive pulmonary diseases</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>COPD Foundation</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ccis59572.2023.10262822</t>
+          <t>https://doi.org/10.15326/jcopdf.2023.0388</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37199731</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ccis59572.2023.10262822</t>
+          <t>https://doi.org/10.15326/jcopdf.2023.0388</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,42 +1578,42 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael G. Johnson, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
+          <t>Huashi Li, Xingnan Li</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; Basis Tucson North, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States</t>
+          <t>Statistics Consulting Lab, BIO5 Institute, University of Arizona, Tucson, AZ, USA; Division of Genetics, Genomics and Precision Medicine, Department of Medicine, University of Arizona College of Medicine, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387979514</t>
+          <t>https://openalex.org/W4385716105</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CC16 Induces Pulmonary Epithelial-Driven SPLUNC1 Expression by Signaling through VLA-2.</t>
+          <t>Genetic relationships between high blood eosinophil count, asthma susceptibility, and asthma severity</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-09-09</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Asthma</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Taylor &amp; Francis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
+          <t>https://doi.org/10.1080/02770903.2023.2247490</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37560908</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
+          <t>https://doi.org/10.1080/02770903.2023.2247490</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,47 +1665,47 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael D. L. Johnson, Joselyn Rojas, Francesca Polverino, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
+          <t>Zhan Shi, Xiaozhi Deng, Xingnan Li, Zhihua Yang, Xiaohong Qian</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; BASIS Tucson North, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Baylor College of Medicine, Houston, TX, United States; Baylor College of Medicine, Houston, TX, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Genetics, Genomics, and Precision Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States</t>
+          <t xml:space="preserve">Communication Management Department, Guangdong Power Grid Co., Ltd. Power Dispatching Control Center, Guangdong, China; Communication Management Department, Guangdong Power Grid Co., Ltd. Power Dispatching Control Center, Guangdong, China; Communication Management Department, Guangdong Power Grid Co., Ltd. Power Dispatching Control Center, Guangdong, China; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388832621</t>
+          <t>https://openalex.org/W4387049368</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CC16 drives VLA-2-dependent SPLUNC1 expression</t>
+          <t>Value Gain-based Power Line Subcarrier Aggregation Method under Colored Noise</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Frontiers in Immunology</t>
+          <t>Journal of Physics: Conference Series</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>IOP Publishing</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
+          <t>https://doi.org/10.1088/1742-6596/2584/1/012132</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38053993</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
+          <t>https://doi.org/10.1088/1742-6596/2584/1/012132</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,27 +1752,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Peiming Zhang, Xingnan Li, Yuanjie Liu</t>
+          <t>Xingnan Li, Jiangang Lü, Peiming Zhang</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Guangdong Power Grid Co.,Ltd,Power Dispatching Control Center,Guangdong,China; Guangdong Power Grid Co.,Ltd,Power Dispatching Control Center,Guangdong,China; Guangdong Power Grid Co.,Ltd,Power Dispatching Control Center,Guangdong,China</t>
+          <t>Power Dispatching Control Center of Guangdong Power Grid Co., Ltd,Guangzhou,China; Power Dispatching Control Center of Guangdong Power Grid Co., Ltd,Guangzhou,China; Power Dispatching Control Center of Guangdong Power Grid Co., Ltd,Guangzhou,China</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390187821</t>
+          <t>https://openalex.org/W4387251115</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Routing Optimization Mechanism for SRv6 Based Power Data Network</t>
+          <t>A GNN-Based Routing and Scheduling Mechanism for Multi-domain Computing First Network</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/wsce59557.2023.10365774</t>
+          <t>https://doi.org/10.1109/ccis59572.2023.10262822</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/wsce59557.2023.10365774</t>
+          <t>https://doi.org/10.1109/ccis59572.2023.10262822</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,42 +1839,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ilka Hoof, Klaus Bønnelykke, Thomas Stranzl, Stéphanie Brand, Xingnan Li, Mohamed H. Shamji, Deborah A. Meyers, Eric D. Bateman, Eugene R. Bleecker, Peter S. Andersen</t>
+          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael G. Johnson, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Translational Research, Alk-Abello A/S, Horsholm, Denmark; Copenhagen Prospective Studies on Asthma in Childhood, Copenhagen University Hospital, Copenhagen, Denmark; Translational Research, Alk-Abello A/S, Horsholm, Denmark; Translational Research, Alk-Abello A/S, Horsholm, Denmark; Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona, USA; National Heart and Lung Institute, Imperial College London, London, UK; Department of Medicine, The University of Arizona College of Medicine, Tucson, Arizona, USA; Division of Respiratory Medicine, Univ of Cape Town, Cape Town, South Africa; Medicine, University of Arizona, Health Sciences Center, Tucson, Arizona, USA; Translational Research, Alk-Abello A/S, Horsholm 2970, Denmark</t>
+          <t>University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; Basis Tucson North, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States; University of Arizona, Tucson, United States</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390451374</t>
+          <t>https://openalex.org/W4387979514</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Genetic and T2 biomarkers linked to the efficacy of HDM sublingual immunotherapy in asthma</t>
+          <t>CC16 Induces Pulmonary Epithelial-Driven SPLUNC1 Expression by Signaling through VLA-2.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-12-30</t>
+          <t>2023-09-09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Thorax</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BMJ</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/thorax-2023-220707</t>
+          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38160049</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/thorax-2023-220707</t>
+          <t>https://doi.org/10.1183/13993003.congress-2023.oa4964</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,57 +1926,57 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bo Li, Xingnan Li, Prakit Saingam, Tao Yan</t>
+          <t>Natalie Iannuzo, Holly Welfley, Nicholas Li, Michael D. L. Johnson, Joselyn Rojas, Francesca Polverino, Stefano Guerra, Xingnan Li, Darren A. Cusanovich, Paul Langlais, Julie G. Ledford</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States; Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States; Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States; Department of Civil and Environmental Engineering, University of Hawaii at Manoa, Honolulu, Hawaii 96822, United States</t>
+          <t>Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; BASIS Tucson North, Tucson, AZ, United States; Department of Immunobiology, University of Arizona, Tucson, AZ, United States; Baylor College of Medicine, Houston, TX, United States; Baylor College of Medicine, Houston, TX, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Medicine, Division of Pulmonary, Allergy, Critical Care, and Sleep Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Genetics, Genomics, and Precision Medicine, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States; Department of Medicine, Division of Endocrinology, University of Arizona, Tucson, AZ, United States; Asthma and Airway Disease Research Center, Tucson, AZ, United States; Department of Cellular and Molecular Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383533147</t>
+          <t>https://openalex.org/W4388832621</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Understanding the Microbiological Quality of Drinking Water at the Point of Consumption with Citizen Science</t>
+          <t>CC16 drives VLA-2-dependent SPLUNC1 expression</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-07-07</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ACS ES&amp;T Water</t>
+          <t>Frontiers in Immunology</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>American Chemical Society</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsestwater.3c00184</t>
+          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38053993</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsestwater.3c00184</t>
+          <t>https://doi.org/10.3389/fimmu.2023.1277582</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,27 +2013,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Xiaozhi Deng, Bo Li, Xingnan Li, Zhentian Wu, Zhihua Yang</t>
+          <t>Peiming Zhang, Xingnan Li, Yuanjie Liu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Guangdong Power Grid Co., Ltd.,Power Dispatching and Control Center,Communication Management Department,Guangdong,China; Guangdong Power Grid Co., Ltd.,Power Dispatching and Control Center,Communication Management Department,Guangdong,China; Guangdong Power Grid Co., Ltd.,Power Dispatching and Control Center,Communication Management Department,Guangdong,China; Guangdong Electric Power Communication Technology Co. Ltd.,Science Innovation Department,Guangdong,China; Guangdong Electric Power Communication Technology Co. Ltd.,Science Innovation Department,Guangdong,China</t>
+          <t>Guangdong Power Grid Co.,Ltd,Power Dispatching Control Center,Guangdong,China; Guangdong Power Grid Co.,Ltd,Power Dispatching Control Center,Guangdong,China; Guangdong Power Grid Co.,Ltd,Power Dispatching Control Center,Guangdong,China</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383988695</t>
+          <t>https://openalex.org/W4390187821</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Container and Microservice-Based Resource Management for Distribution Station Area</t>
+          <t>Routing Optimization Mechanism for SRv6 Based Power Data Network</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icmsp58539.2023.10170832</t>
+          <t>https://doi.org/10.1109/wsce59557.2023.10365774</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icmsp58539.2023.10170832</t>
+          <t>https://doi.org/10.1109/wsce59557.2023.10365774</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
